--- a/Microsoft Excel/Tanvir/Day 06.xlsx
+++ b/Microsoft Excel/Tanvir/Day 06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tarato/Documents/GitHub/Spreadsheet/Microsoft Excel/Tanvir/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8642343F-87C0-A04E-9A99-C453C7EA5B48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFB684F7-9703-B144-9410-BF027C9E600C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="6" xr2:uid="{2C2D62B4-EDA8-F742-A939-9AB21E17CB6F}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="9" xr2:uid="{2C2D62B4-EDA8-F742-A939-9AB21E17CB6F}"/>
   </bookViews>
   <sheets>
     <sheet name="Charts " sheetId="1" r:id="rId1"/>
@@ -21,10 +21,12 @@
     <sheet name="Radar Charts" sheetId="6" r:id="rId6"/>
     <sheet name="Pivot Intro" sheetId="7" r:id="rId7"/>
     <sheet name="My pivot" sheetId="9" r:id="rId8"/>
+    <sheet name="Excel Case   Practical Example" sheetId="10" r:id="rId9"/>
+    <sheet name="Practice example 02" sheetId="11" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="7" r:id="rId9"/>
+    <pivotCache cacheId="12" r:id="rId11"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="69">
   <si>
     <t xml:space="preserve">  </t>
   </si>
@@ -205,12 +207,64 @@
   <si>
     <t>Sum of Sales</t>
   </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Item price</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price   </t>
+  </si>
+  <si>
+    <t>Shop cart</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Great ball</t>
+  </si>
+  <si>
+    <t>Ultra ball</t>
+  </si>
+  <si>
+    <t>Potion</t>
+  </si>
+  <si>
+    <t>Super potion</t>
+  </si>
+  <si>
+    <t>Hyper potion</t>
+  </si>
+  <si>
+    <t>Antidote</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Discount</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    </t>
+  </si>
+  <si>
+    <t>POKE MART</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_([$BDT]\ * #,##0.00_);_([$BDT]\ * \(#,##0.00\);_([$BDT]\ * &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -233,16 +287,91 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -250,11 +379,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -264,9 +403,31 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="6" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -754,6 +915,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-6744-0347-9BE2-19C1C48492C5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -983,6 +1149,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-E23A-CC4F-BE84-407645CB7E5E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -998,6 +1169,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-E23A-CC4F-BE84-407645CB7E5E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1013,6 +1189,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-E23A-CC4F-BE84-407645CB7E5E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1028,6 +1209,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-E23A-CC4F-BE84-407645CB7E5E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -1104,6 +1290,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-E23A-CC4F-BE84-407645CB7E5E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1119,6 +1310,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-E23A-CC4F-BE84-407645CB7E5E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1134,6 +1330,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-E23A-CC4F-BE84-407645CB7E5E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -1149,6 +1350,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-E23A-CC4F-BE84-407645CB7E5E}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -20027,7 +20233,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED9AEA06-83C6-FD48-90AD-1E3217E4AC8E}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{ED9AEA06-83C6-FD48-90AD-1E3217E4AC8E}" name="PivotTable1" cacheId="12" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField dataField="1" numFmtId="14" showAll="0"/>
@@ -20489,10 +20695,241 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18190E8A-0EA3-954B-BFF8-4BBD413C960A}">
+  <dimension ref="A1:G14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="158" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="47" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="10">
+        <v>200</v>
+      </c>
+      <c r="C3" s="12">
+        <f>B3*D3</f>
+        <v>1000</v>
+      </c>
+      <c r="D3" s="11">
+        <v>5</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="10">
+        <v>600</v>
+      </c>
+      <c r="C4" s="12">
+        <f t="shared" ref="C4:C9" si="0">B4*D4</f>
+        <v>1200</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1200</v>
+      </c>
+      <c r="C5" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="11">
+        <v>0</v>
+      </c>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="10">
+        <v>300</v>
+      </c>
+      <c r="C6" s="12">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+      <c r="D6" s="11">
+        <v>5</v>
+      </c>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="10">
+        <v>700</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D7" s="11">
+        <v>0</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1200</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="11">
+        <v>0</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="10">
+        <v>100</v>
+      </c>
+      <c r="C9" s="12">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="D9" s="11">
+        <v>10</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="14">
+        <f>SUM(C3:C9)</f>
+        <v>4700</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="15">
+        <f>(B11)*F12%</f>
+        <v>3290</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="13">
+        <v>70</v>
+      </c>
+      <c r="G12" s="8"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="16">
+        <f>B11-B12</f>
+        <v>1410</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -20586,6 +21023,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -20666,6 +21104,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -20743,6 +21182,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -20950,6 +21390,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -21064,6 +21505,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
@@ -21073,7 +21515,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="167" workbookViewId="0">
+    <sheetView zoomScale="167" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -21207,6 +21649,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -21245,13 +21688,13 @@
       <c r="A4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4">
         <v>90</v>
       </c>
     </row>
@@ -21259,13 +21702,13 @@
       <c r="A5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5">
         <v>1</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5">
         <v>130</v>
       </c>
     </row>
@@ -21273,13 +21716,13 @@
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6">
         <v>2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6">
         <v>250</v>
       </c>
     </row>
@@ -21287,13 +21730,13 @@
       <c r="A7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7">
         <v>2</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7">
         <v>300</v>
       </c>
     </row>
@@ -21301,13 +21744,13 @@
       <c r="A8" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8">
         <v>120</v>
       </c>
     </row>
@@ -21315,17 +21758,186 @@
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9">
         <v>7</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9">
         <v>890</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBD4E3A7-804D-5B4A-A16F-2E4B611224EE}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView zoomScale="184" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2">
+        <v>200</v>
+      </c>
+      <c r="C2">
+        <f>B2*D2</f>
+        <v>4000</v>
+      </c>
+      <c r="D2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3">
+        <v>600</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">B3*D3</f>
+        <v>1800</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4">
+        <v>1200</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3600</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <v>300</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6">
+        <v>700</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B7">
+        <v>1200</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6000</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10">
+        <f>SUM(C2:C8)</f>
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11">
+        <f>(B10)*F11%</f>
+        <v>1670</v>
+      </c>
+      <c r="E11" t="s">
+        <v>65</v>
+      </c>
+      <c r="F11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13">
+        <f>B10-B11</f>
+        <v>15030</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>